--- a/demo/data/CC_AC_PERIODLACCOUNT_DEMO.XLSX
+++ b/demo/data/CC_AC_PERIODLACCOUNT_DEMO.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niuren.Zhu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niuren.Zhu/Codes/Niuren.Zhu/ibas-training/demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9648EB-ED17-EF44-8714-F94D103CBF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0DFB47-DB6E-FD4E-AFE6-CB06D1BD2491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
   <si>
     <t>期间-分类账</t>
   </si>
@@ -509,9 +509,6 @@
     <t>库存重估-收益</t>
   </si>
   <si>
-    <t>劳务成本</t>
-  </si>
-  <si>
     <t>应付账款-国内</t>
   </si>
   <si>
@@ -552,6 +549,30 @@
   </si>
   <si>
     <t>默认设置</t>
+  </si>
+  <si>
+    <t>原材料</t>
+  </si>
+  <si>
+    <t>GL-MM-08</t>
+  </si>
+  <si>
+    <t>价格差异科目</t>
+  </si>
+  <si>
+    <t>材料成本差异</t>
+  </si>
+  <si>
+    <t>GL-BP-M1</t>
+  </si>
+  <si>
+    <t>GL-BP-M2</t>
+  </si>
+  <si>
+    <t>收款方式科目</t>
+  </si>
+  <si>
+    <t>付款方式科目</t>
   </si>
 </sst>
 </file>
@@ -658,9 +679,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -698,7 +719,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -804,7 +825,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -946,7 +967,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1049,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1043,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>550306</v>
@@ -1056,7 +1077,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1071,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2">
         <v>550302</v>
@@ -1084,7 +1105,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1099,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>550302</v>
@@ -1112,7 +1133,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1127,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2">
         <v>5999</v>
@@ -1140,7 +1161,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1155,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="2">
         <v>550304</v>
@@ -1168,7 +1189,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1183,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2">
         <v>21710101</v>
@@ -1196,7 +1217,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1211,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2">
         <v>21710105</v>
@@ -1224,7 +1245,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1239,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>124301</v>
@@ -1252,7 +1273,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1267,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2">
         <v>540102</v>
@@ -1280,7 +1301,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1295,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>540105</v>
@@ -1308,7 +1329,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1323,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2">
         <v>540104</v>
@@ -1336,7 +1357,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1351,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2">
         <v>540107</v>
@@ -1364,7 +1385,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1379,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="2">
         <v>540106</v>
@@ -1392,7 +1413,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1407,464 +1428,548 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="2">
-        <v>410701</v>
+        <v>121101</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
-        <v>212101</v>
+        <v>123201</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="2">
-        <v>115101</v>
+        <v>212101</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2">
-        <v>100201</v>
+        <v>115101</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="2">
-        <v>120102</v>
+        <v>100201</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2">
-        <v>212103</v>
+        <v>120102</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="2">
-        <v>540104</v>
+        <v>212103</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="2">
-        <v>212103</v>
+        <v>540104</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2">
-        <v>113101</v>
+        <v>212103</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" s="2">
-        <v>213101</v>
+        <v>113101</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="2">
-        <v>100902</v>
+        <v>213101</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="2">
-        <v>100101</v>
+        <v>100902</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G29" s="2">
-        <v>510101</v>
+        <v>100101</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" s="2">
         <v>510101</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="2">
-        <v>540101</v>
+        <v>510101</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2">
-        <v>124301</v>
+        <v>540101</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2">
-        <v>129101</v>
+        <v>124301</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="2">
+        <v>129101</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="2">
+        <v>100201</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="2">
+        <v>100201</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1872,7 +1977,7 @@
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="F4:F33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F4:F36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NO,YES"</formula1>
     </dataValidation>
   </dataValidations>
